--- a/app/Http/Controllers/message.xlsx
+++ b/app/Http/Controllers/message.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="657">
   <si>
     <t>MessageCode</t>
   </si>
@@ -548,6 +548,15 @@
     <t>没有发现发票</t>
   </si>
   <si>
+    <t>PAYMENT_ERROR3</t>
+  </si>
+  <si>
+    <t>Hoá đơn không thể thanh toán</t>
+  </si>
+  <si>
+    <t>The invoice is unable to pay</t>
+  </si>
+  <si>
     <t>CANCEL_INVOICE_ERROR</t>
   </si>
   <si>
@@ -680,25 +689,25 @@
     <t>找不到发票或产品，无法评估</t>
   </si>
   <si>
-    <t>INPUT_TYPEID_ERROR</t>
+    <t>INPUT_CATEGORYID_ERROR</t>
   </si>
   <si>
     <t>Mã loại hàng không được bỏ trống</t>
   </si>
   <si>
-    <t>The type of goods is not vacant</t>
+    <t>The CATEGORY of goods is not vacant</t>
   </si>
   <si>
     <t>商品的类型不是空置的</t>
   </si>
   <si>
-    <t>TYPE_NOTFOUND</t>
+    <t>CATEGORY_NOTFOUND</t>
   </si>
   <si>
     <t>Loại hàng không tồn tại</t>
   </si>
   <si>
-    <t>The type of aviation exists</t>
+    <t>The category of aviation exists</t>
   </si>
   <si>
     <t>存在航空的类型</t>
@@ -1394,19 +1403,19 @@
     <t>运输部门已经存在</t>
   </si>
   <si>
-    <t>INPUT_TYPE_NAME_ERROR</t>
+    <t>INPUT_CATEGORY_NAME_ERROR</t>
   </si>
   <si>
     <t>Tên loại hàng không được bỏ trống</t>
   </si>
   <si>
-    <t>The name of the type of goods is vacant</t>
+    <t>The name of the CATEGORY of goods is vacant</t>
   </si>
   <si>
     <t>商品类型的名称是空置的</t>
   </si>
   <si>
-    <t>TYPE_ISEXIST_ERROR</t>
+    <t>CATEGORY_ISEXIST_ERROR</t>
   </si>
   <si>
     <t>Loại hàng đã tồn tại</t>
@@ -1503,9 +1512,6 @@
   </si>
   <si>
     <t>INPUT_STATUS_SHOP_ERROR1</t>
-  </si>
-  <si>
-    <t>PAYMENT_ERROR3</t>
   </si>
   <si>
     <t>Lỗi thanh toán</t>
@@ -1849,10 +1855,10 @@
     <t>SMS_SEND_SUCCESS</t>
   </si>
   <si>
-    <t>Mã xác minh đã được gửi, mã xác minh có hiệu lực trong 5 phút</t>
-  </si>
-  <si>
-    <t>The verification code has been sent, the verification code takes effect in 5 minutes</t>
+    <t>Mã xác minh đã được gửi, mã xác minh có hiệu lực trong 15 phút</t>
+  </si>
+  <si>
+    <t>The verification code has been sent, the verification code takes effect in 15 minutes</t>
   </si>
   <si>
     <r>
@@ -2222,21 +2228,13 @@
     <t>顶是无效的</t>
   </si>
   <si>
-    <t>INPUT_TYPE_ERROR</t>
+    <t>INPUT_CATEGORY_ERROR</t>
   </si>
   <si>
     <t>Loại không được bỏ trống</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>The type is not vacant</t>
-    </r>
+    <t>The CATEGORY is not vacant</t>
   </si>
   <si>
     <r>
@@ -2456,6 +2454,96 @@
   </si>
   <si>
     <t>不支持的语言</t>
+  </si>
+  <si>
+    <t>REFRESH_TOKEN_SUCCESS</t>
+  </si>
+  <si>
+    <t>Làm mới token thành công</t>
+  </si>
+  <si>
+    <t>Refresh token successfully</t>
+  </si>
+  <si>
+    <t>ADD_TO_CART_ERROR</t>
+  </si>
+  <si>
+    <t>Bạn chưa chọn size</t>
+  </si>
+  <si>
+    <t>No size is selected</t>
+  </si>
+  <si>
+    <t>FILE_NOT_PROVIDED</t>
+  </si>
+  <si>
+    <t>Không có tệp tin được cung cấp</t>
+  </si>
+  <si>
+    <t>File not provided</t>
+  </si>
+  <si>
+    <t>TRANSACTION_SUCCESS</t>
+  </si>
+  <si>
+    <t>Giao dịch thành công</t>
+  </si>
+  <si>
+    <t>Successful transaction</t>
+  </si>
+  <si>
+    <t>CONFIRM_ERROR</t>
+  </si>
+  <si>
+    <t>Đơn hàng không thể xác nhận</t>
+  </si>
+  <si>
+    <t>Invoice cannot be confirmed</t>
+  </si>
+  <si>
+    <t>CHANGE_LANGUAGE_SUCCESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngôn ngữ hiện tại là </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current language is </t>
+  </si>
+  <si>
+    <t>COUPON_NOT_FOUND</t>
+  </si>
+  <si>
+    <t>Mã giảm giá không tồn tại</t>
+  </si>
+  <si>
+    <t>Coupon is not exist</t>
+  </si>
+  <si>
+    <t>USER_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Người dùng không tồn tại</t>
+  </si>
+  <si>
+    <t>User is not exist</t>
+  </si>
+  <si>
+    <t>ROLE_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Vai trò không tồn tại</t>
+  </si>
+  <si>
+    <t>Role is not exist</t>
+  </si>
+  <si>
+    <t>PAYMENT_METHOD_NOTFOUND</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán không tồn tại</t>
+  </si>
+  <si>
+    <t>Payment method is not exist</t>
   </si>
 </sst>
 </file>
@@ -3148,7 +3236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3236,6 +3324,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -3771,10 +3862,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C147" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="15.6"/>
@@ -4381,12 +4472,10 @@
       <c r="B29" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
@@ -4397,18 +4486,18 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -4417,17 +4506,17 @@
       <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
@@ -4439,16 +4528,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
@@ -4460,16 +4549,16 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -4481,16 +4570,16 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
@@ -4502,16 +4591,16 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
@@ -4523,16 +4612,16 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
@@ -4544,18 +4633,18 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -4565,58 +4654,58 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="16"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
@@ -4628,16 +4717,16 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
@@ -4649,16 +4738,16 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
@@ -4670,60 +4759,60 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="D43" s="9" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="17"/>
+      <c r="J43" s="16"/>
       <c r="K43" s="15"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E44" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="16"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="15"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -4733,16 +4822,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
@@ -4754,16 +4843,16 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
@@ -4775,100 +4864,100 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="17"/>
+      <c r="J48" s="16"/>
       <c r="K48" s="15"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="16"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="15"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="17"/>
+      <c r="J50" s="16"/>
       <c r="K50" s="15"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="16"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="15"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -4878,20 +4967,20 @@
       <c r="J52" s="16"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" ht="31.2" spans="1:11">
+    <row r="53" spans="1:11">
       <c r="A53" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -4899,18 +4988,18 @@
       <c r="J53" s="16"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" ht="31.2" spans="1:11">
       <c r="A54" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
@@ -4922,18 +5011,18 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -4942,19 +5031,19 @@
       <c r="K55" s="15"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -4964,16 +5053,16 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
@@ -4985,16 +5074,16 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
@@ -5006,16 +5095,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
@@ -5027,16 +5116,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
@@ -5048,16 +5137,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
@@ -5069,16 +5158,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
@@ -5090,16 +5179,16 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>249</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
@@ -5111,16 +5200,16 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
@@ -5132,16 +5221,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>256</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
@@ -5153,16 +5242,16 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>261</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
@@ -5174,16 +5263,16 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
@@ -5195,16 +5284,16 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
@@ -5216,16 +5305,16 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
@@ -5237,58 +5326,58 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="17"/>
+      <c r="J70" s="16"/>
       <c r="K70" s="15"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="16"/>
+      <c r="J71" s="17"/>
       <c r="K71" s="15"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
@@ -5300,16 +5389,16 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>289</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
@@ -5321,16 +5410,16 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
@@ -5342,16 +5431,16 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>297</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
@@ -5363,16 +5452,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
@@ -5383,19 +5472,19 @@
       <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E77" s="11"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -5405,16 +5494,16 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -5426,37 +5515,37 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E79" s="10"/>
+      <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
-      <c r="J79" s="17"/>
+      <c r="J79" s="16"/>
       <c r="K79" s="15"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
@@ -5468,37 +5557,37 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>321</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="16"/>
+      <c r="J81" s="17"/>
       <c r="K81" s="15"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
@@ -5510,16 +5599,16 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
@@ -5531,16 +5620,16 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>333</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
@@ -5552,18 +5641,18 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="E85" s="11"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -5573,58 +5662,58 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E86" s="10"/>
+      <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
-      <c r="J86" s="17"/>
+      <c r="J86" s="16"/>
       <c r="K86" s="15"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
-      <c r="J87" s="16"/>
+      <c r="J87" s="17"/>
       <c r="K87" s="15"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
@@ -5636,18 +5725,18 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E89" s="11"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -5656,19 +5745,19 @@
       <c r="K89" s="15"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E90" s="10"/>
+      <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -5677,61 +5766,61 @@
       <c r="K90" s="15"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
-      <c r="J91" s="17"/>
+      <c r="J91" s="16"/>
       <c r="K91" s="15"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
-      <c r="J92" s="16"/>
+      <c r="J92" s="17"/>
       <c r="K92" s="15"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E93" s="11"/>
+      <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -5741,16 +5830,16 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -5762,18 +5851,18 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E95" s="10"/>
+      <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -5783,16 +5872,16 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="C96" s="8" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
@@ -5803,17 +5892,17 @@
       <c r="K96" s="15"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="D97" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
@@ -5824,17 +5913,17 @@
       <c r="K97" s="15"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="D98" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>386</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
@@ -5846,16 +5935,16 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="D99" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
@@ -5867,16 +5956,16 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="D100" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>394</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
@@ -5888,16 +5977,16 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="D101" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
@@ -5909,16 +5998,16 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="D102" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
@@ -5936,10 +6025,10 @@
         <v>402</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
@@ -5951,37 +6040,37 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="D104" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
-      <c r="J104" s="17"/>
+      <c r="J104" s="16"/>
       <c r="K104" s="15"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="D105" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
@@ -5993,37 +6082,37 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="D106" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>416</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
-      <c r="J106" s="16"/>
+      <c r="J106" s="17"/>
       <c r="K106" s="15"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="D107" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
@@ -6035,58 +6124,58 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="D108" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>424</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
-      <c r="J108" s="17"/>
+      <c r="J108" s="16"/>
       <c r="K108" s="15"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="D109" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
-      <c r="J109" s="16"/>
+      <c r="J109" s="17"/>
       <c r="K109" s="15"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="D110" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
@@ -6098,16 +6187,16 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="D111" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>436</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
@@ -6119,16 +6208,16 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="D112" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
@@ -6140,18 +6229,18 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="D113" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E113" s="11"/>
+      <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -6161,18 +6250,18 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="D114" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E114" s="10"/>
+      <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -6182,37 +6271,37 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="D115" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
-      <c r="J115" s="17"/>
+      <c r="J115" s="16"/>
       <c r="K115" s="15"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="D116" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
@@ -6224,39 +6313,39 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="D117" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="E117" s="11"/>
+      <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="16"/>
+      <c r="J117" s="17"/>
       <c r="K117" s="15"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="D118" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="E118" s="10"/>
+      <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
@@ -6266,18 +6355,18 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="D119" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E119" s="11"/>
+      <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -6286,19 +6375,19 @@
       <c r="K119" s="15"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="D120" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="E120" s="10"/>
+      <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -6307,17 +6396,17 @@
       <c r="K120" s="15"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="D121" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
@@ -6329,16 +6418,16 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="D122" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>480</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
@@ -6348,18 +6437,18 @@
       <c r="J122" s="16"/>
       <c r="K122" s="15"/>
     </row>
-    <row r="123" ht="31.2" spans="1:11">
+    <row r="123" spans="1:11">
       <c r="A123" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="D123" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>484</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
@@ -6369,18 +6458,18 @@
       <c r="J123" s="16"/>
       <c r="K123" s="15"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" ht="31.2" spans="1:11">
       <c r="A124" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="D124" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>488</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
@@ -6392,16 +6481,16 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="D125" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
@@ -6413,16 +6502,16 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="D126" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
@@ -6434,16 +6523,16 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="D127" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>500</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
@@ -6455,16 +6544,16 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="D128" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>504</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
@@ -6475,59 +6564,59 @@
       <c r="K128" s="15"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="D129" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="E129" s="20"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="30"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="15"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="D130" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="22"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="31"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="D131" s="23" t="s">
         <v>514</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>516</v>
       </c>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
@@ -6539,16 +6628,16 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="D132" s="23" t="s">
         <v>518</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>520</v>
       </c>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
@@ -6560,16 +6649,16 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="B133" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="D133" s="23" t="s">
         <v>522</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>524</v>
       </c>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
@@ -6581,16 +6670,16 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="D134" s="23" t="s">
         <v>526</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>528</v>
       </c>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
@@ -6602,16 +6691,16 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="D135" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>532</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
@@ -6623,16 +6712,16 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="D136" s="23" t="s">
         <v>534</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>536</v>
       </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
@@ -6643,17 +6732,17 @@
       <c r="K136" s="15"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="D137" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>540</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
@@ -6665,16 +6754,16 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="D138" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>544</v>
       </c>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
@@ -6686,16 +6775,16 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="D139" s="23" t="s">
         <v>546</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>548</v>
       </c>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
@@ -6707,16 +6796,16 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="D140" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>552</v>
       </c>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
@@ -6728,16 +6817,16 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="D141" s="23" t="s">
         <v>554</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>556</v>
       </c>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
@@ -6747,242 +6836,373 @@
       <c r="J141" s="15"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:11">
       <c r="A142" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="D142" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>560</v>
-      </c>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="D143" s="23" t="s">
         <v>562</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="D144" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="D145" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="C145" s="8" t="s">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="D145" s="23" t="s">
+      <c r="B146" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="14" t="s">
+      <c r="C146" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="D146" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="C146" s="8" t="s">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="B147" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="24" t="s">
+      <c r="C147" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="D147" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="D148" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="D149" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="D150" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C151" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="D151" s="25" t="s">
         <v>594</v>
-      </c>
-      <c r="C151" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C152" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="D152" s="25" t="s">
         <v>598</v>
-      </c>
-      <c r="C152" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C153" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="D153" s="26" t="s">
         <v>602</v>
-      </c>
-      <c r="C153" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C154" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="D154" s="26" t="s">
         <v>606</v>
-      </c>
-      <c r="C154" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="D154" s="26" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C155" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="D155" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="C155" s="25" t="s">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="D155" s="25" t="s">
+      <c r="B156" s="3" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="156" ht="16.35" spans="1:4">
-      <c r="A156" s="6" t="s">
+      <c r="C156" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="D156" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="C156" s="25" t="s">
+    </row>
+    <row r="157" ht="16.35" spans="1:4">
+      <c r="A157" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="B157" s="7" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="157" ht="16.35" spans="1:4">
-      <c r="A157" s="1" t="s">
+      <c r="C157" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="D157" s="26" t="s">
         <v>618</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="D157" s="28" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="158" ht="16.35" spans="1:4">
       <c r="A158" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C158" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="D158" s="28" t="s">
         <v>622</v>
       </c>
-      <c r="C158" s="27" t="s">
+    </row>
+    <row r="159" ht="16.35" spans="1:4">
+      <c r="A159" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D158" s="29" t="s">
+      <c r="B159" s="1" t="s">
         <v>624</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="D159" s="29" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
